--- a/OREI_files/40-herd data/univariate_exploration_5_19_22.xlsx
+++ b/OREI_files/40-herd data/univariate_exploration_5_19_22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{801D8A6B-3A3C-40DC-921F-042FE80875D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9407CD89-6618-431C-B8DD-7D04F671D350}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{801D8A6B-3A3C-40DC-921F-042FE80875D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5897C73-C910-4911-A63A-FF2956FE0D66}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="14650" windowHeight="10170" activeTab="8" xr2:uid="{9BA36239-C544-48F8-BEF0-B089E60DB4FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{9BA36239-C544-48F8-BEF0-B089E60DB4FC}"/>
   </bookViews>
   <sheets>
     <sheet name="SCC" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="160">
   <si>
     <t>mean hygiene score</t>
   </si>
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t>*this rel. is positive correlation… ???</t>
+  </si>
+  <si>
+    <t>* farms using bed_cond have higher % chron IMI</t>
   </si>
 </sst>
 </file>
@@ -720,14 +723,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -735,7 +737,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -752,7 +753,6 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C81780-B770-48A3-BDE9-F63511F5BD75}">
   <dimension ref="A2:N120"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1137,129 +1137,122 @@
         <v>141</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="6"/>
       <c r="E3" s="3" t="s">
         <v>142</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <v>21</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="14" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>8</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="14" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>13</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>0.06</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>0.17</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="25"/>
+    <row r="13" spans="1:14" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="22"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <v>0.18</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="15">
         <v>3</v>
       </c>
     </row>
@@ -1267,194 +1260,194 @@
       <c r="E18"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <v>0.01</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="17" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="16">
         <v>0.04</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="17" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="15">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="17" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <v>0.1694</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="15">
         <v>21</v>
       </c>
       <c r="H25" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="18">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="17">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="17" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="15">
         <v>8</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="19" t="s">
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="17" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="15">
         <v>10</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="19" t="s">
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="17">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="17" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <v>6.769E-2</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="15">
         <v>7</v>
       </c>
       <c r="I29" t="s">
@@ -1462,218 +1455,218 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="17" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="17" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="17" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="16">
         <v>5.8250000000000003E-3</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="15">
         <v>21</v>
       </c>
       <c r="H33" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="20">
         <v>0.24210000000000001</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="L33" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="17">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="17" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="15">
         <v>4</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="19" t="s">
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="17" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="15">
         <v>8</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="19" t="s">
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="17">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="17" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="16">
         <v>0.1268</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="15">
         <v>21</v>
       </c>
       <c r="H37" t="s">
         <v>93</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="I37" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="J37" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="20">
         <v>0.93459999999999999</v>
       </c>
-      <c r="L37" s="19" t="s">
+      <c r="L37" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="M37" s="19">
+      <c r="M37" s="17">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="17" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="15">
         <v>3</v>
       </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="19" t="s">
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="M38" s="19">
+      <c r="M38" s="17">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="17" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="15">
         <v>12</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="19" t="s">
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="17" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="15">
         <v>6</v>
       </c>
     </row>
@@ -1879,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE40399-AB2B-4F32-8AAA-CD8F682C56F1}">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1898,7 +1891,6 @@
         <v>103</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="6"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1907,145 +1899,145 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="44" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="19">
         <v>0.1144</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="12">
         <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="16">
         <v>0.10730000000000001</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="15">
         <v>18</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <v>9</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="17" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="15">
         <v>9</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="14" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <v>9</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="s">
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="17" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>130</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>0.02</v>
       </c>
       <c r="F6">
         <v>15</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="28"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31"/>
-    </row>
-    <row r="11" spans="1:18" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="24"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="28"/>
+    </row>
+    <row r="11" spans="1:18" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>126</v>
       </c>
       <c r="D12" t="s">
@@ -2081,7 +2073,7 @@
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D15" t="s">
@@ -2117,7 +2109,7 @@
       <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D18" t="s">
@@ -2158,113 +2150,113 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <v>9.2170000000000002E-2</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="12">
         <v>19</v>
       </c>
       <c r="H22" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="16">
         <v>0.1694</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="L22" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="14" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="12">
         <v>7</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="17" t="s">
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="14" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="12">
         <v>6</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="17" t="s">
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="14" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="12">
         <v>6</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="17" t="s">
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="E26"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="17" t="s">
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="15">
         <v>3</v>
       </c>
     </row>
@@ -2272,7 +2264,7 @@
       <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>131</v>
       </c>
       <c r="D27" t="s">
@@ -2286,236 +2278,236 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <v>0.02</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <v>0.1</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="15">
         <v>6</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="17" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="17" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="16">
         <v>0.18</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="17" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="17" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="15">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="16">
         <v>0.16</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="17" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="17" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="16">
         <v>0.18870000000000001</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="15">
         <v>19</v>
       </c>
       <c r="H38" t="s">
         <v>123</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="20">
         <v>0.33889999999999998</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="M38" s="19">
+      <c r="M38" s="17">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="17" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="15">
         <v>7</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="19" t="s">
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="17" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="15">
         <v>3</v>
       </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="19" t="s">
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="M40" s="19">
+      <c r="M40" s="17">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="17" t="s">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="15">
         <v>9</v>
       </c>
     </row>
@@ -2732,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAD7D69-D05D-4341-838D-6152ABBB30E1}">
   <dimension ref="A2:M48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2751,13 +2743,12 @@
         <v>115</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D3" t="s">
@@ -2772,7 +2763,7 @@
       <c r="G3">
         <v>19</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2783,7 +2774,7 @@
       <c r="G4">
         <v>14</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2796,51 +2787,51 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>135</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>0.05</v>
       </c>
       <c r="F6">
         <v>19</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>134</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>0.05</v>
       </c>
       <c r="F7">
         <v>19</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-    </row>
-    <row r="10" spans="1:12" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="24"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="10" spans="1:12" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
@@ -2858,7 +2849,7 @@
       <c r="G11">
         <v>18</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="9" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2882,7 +2873,7 @@
       <c r="B14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D14" t="s">
@@ -2918,8 +2909,8 @@
       <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>126</v>
+      <c r="C17" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="D17" t="s">
         <v>104</v>
@@ -2968,326 +2959,326 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>0.09</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="15">
         <v>6</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="17" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="17" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <v>0.08</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="17" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="17" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="15">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <v>0.04</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="17" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="17" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="16">
         <v>0.16070000000000001</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="15">
         <v>19</v>
       </c>
       <c r="H30" t="s">
         <v>123</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="20">
         <v>0.90080000000000005</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="17">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="17" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="15">
         <v>8</v>
       </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="19" t="s">
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="17" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="15">
         <v>8</v>
       </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="19" t="s">
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M32" s="17">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="17" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="16">
         <v>0.1724</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="15">
         <v>19</v>
       </c>
       <c r="H34" t="s">
         <v>123</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="20">
         <v>0.30740000000000001</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="17">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="17" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="15">
         <v>11</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="19" t="s">
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="17">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="17" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="15">
         <v>4</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="19" t="s">
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="M36" s="19">
+      <c r="M36" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="17" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="16">
         <v>0.02</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="15">
         <v>3</v>
       </c>
     </row>
@@ -3333,8 +3324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A4A4E0-BC8C-4C81-9A5F-8ECC07DC93DF}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3352,33 +3343,32 @@
         <v>121</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>140</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>0.01</v>
       </c>
       <c r="F2">
         <v>15</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>138</v>
       </c>
       <c r="D3" t="s">
@@ -3390,15 +3380,15 @@
       <c r="F3">
         <v>19</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D4" t="s">
@@ -3413,27 +3403,27 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-    </row>
-    <row r="10" spans="1:12" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="24"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+    </row>
+    <row r="10" spans="1:12" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>137</v>
       </c>
       <c r="D11" t="s">
@@ -3481,7 +3471,7 @@
       <c r="G14">
         <v>18</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="9" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3502,326 +3492,326 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="16">
         <v>0.13400000000000001</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="15">
         <v>19</v>
       </c>
       <c r="H17" t="s">
         <v>123</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="20">
         <v>0.92249999999999999</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="17">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="17" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="15">
         <v>8</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="19" t="s">
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="17" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="15">
         <v>8</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="19" t="s">
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>0.1149</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="15">
         <v>19</v>
       </c>
       <c r="H21" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="20">
         <v>0.94940000000000002</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="17">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="17" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="15">
         <v>2</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="19" t="s">
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="17" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="15">
         <v>8</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="19" t="s">
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="17">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="17" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <v>0.06</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="16">
         <v>0.15</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="15">
         <v>6</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="17" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="17" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <v>0.06</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="17" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="17" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="15">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="17" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="17" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="15">
         <v>15</v>
       </c>
     </row>
@@ -3837,8 +3827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BDA73B-E2FB-458B-A66B-6E67BE975008}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3856,13 +3846,12 @@
         <v>60</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>156</v>
       </c>
       <c r="D2" t="s">
@@ -3887,7 +3876,7 @@
       <c r="G3">
         <v>15</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3898,66 +3887,66 @@
       <c r="G4">
         <v>5</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>0.1474</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="14" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>11</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="14" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>9</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3974,7 +3963,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3991,7 +3980,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -4007,8 +3996,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="24"/>
+    <row r="14" spans="1:12" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
@@ -4028,7 +4017,7 @@
       <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D16" t="s">
@@ -4097,298 +4086,298 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="16">
         <v>0.1711</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="15">
         <v>20</v>
       </c>
       <c r="H22" t="s">
         <v>93</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="20">
         <v>0.85</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="17" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="15">
         <v>8</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="19" t="s">
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="17" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="15">
         <v>9</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="19" t="s">
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="17">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="17" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="16">
         <v>0.1</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="15">
         <v>4</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <v>0.01</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="15">
         <v>4</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <v>0.1</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="15">
         <v>4</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="17" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="17" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="16">
         <v>0.11</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="15">
         <v>6</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="17" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="17" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="16">
         <v>0.15</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="17" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="17" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="16">
         <v>0.02</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="17" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="17" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4408,7 +4397,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4426,10 +4415,9 @@
         <v>76</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -4438,18 +4426,18 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>0.05</v>
       </c>
       <c r="F2">
         <v>15</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -4464,21 +4452,21 @@
       <c r="F3">
         <v>20</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>99</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>0.01</v>
       </c>
       <c r="F4" t="s">
@@ -4495,12 +4483,12 @@
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F6" t="s">
@@ -4509,13 +4497,13 @@
       <c r="G6">
         <v>15</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-    </row>
-    <row r="10" spans="1:13" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="24"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28"/>
+    </row>
+    <row r="10" spans="1:13" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
@@ -4554,305 +4542,305 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>0.20380000000000001</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="12">
         <v>20</v>
       </c>
       <c r="H14" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="20">
         <v>0.8246</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="14" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <v>7</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="19" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="14" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="12">
         <v>6</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="19" t="s">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="14" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>4</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="19" t="s">
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="14" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="19">
         <v>0.10979999999999999</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <v>20</v>
       </c>
       <c r="H19" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="20">
         <v>0.28310000000000002</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="14" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
         <v>3</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="19" t="s">
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="14" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <v>8</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="19" t="s">
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="17">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="14" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="16">
         <v>0.04</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <v>0.18</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="15">
         <v>4</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="17" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="17" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <v>0.2</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="17" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="17" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4871,8 +4859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11383C1-0812-4BA6-AEEB-A17558293CFA}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4890,10 +4878,9 @@
         <v>24</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -4911,7 +4898,7 @@
       <c r="G3">
         <v>21</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4922,7 +4909,7 @@
       <c r="G4">
         <v>8</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4935,10 +4922,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
@@ -4953,12 +4940,12 @@
       <c r="G6">
         <v>21</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F7" t="s">
@@ -4967,10 +4954,10 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
@@ -4981,10 +4968,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D9" t="s">
@@ -4998,10 +4985,10 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D11" t="s">
@@ -5015,16 +5002,16 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>0</v>
       </c>
       <c r="F14">
@@ -5032,22 +5019,22 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-      <c r="E15" s="12"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="E16" s="12"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="2:7" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E18" s="24"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="2:7" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
@@ -5184,35 +5171,35 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <v>0.19</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="14"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="14"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5227,8 +5214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27FA94B-738B-4A76-8BB4-EAF203CF3561}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5245,7 +5232,6 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="6"/>
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
@@ -5254,7 +5240,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -5272,7 +5258,7 @@
       <c r="G2">
         <v>21</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5283,7 +5269,7 @@
       <c r="G3">
         <v>8</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5296,10 +5282,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="s">
@@ -5311,18 +5297,18 @@
       <c r="F5">
         <v>21</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D6" t="s">
@@ -5334,36 +5320,36 @@
       <c r="F6">
         <v>15</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>0.01</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="24"/>
+    <row r="10" spans="1:12" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
@@ -5380,7 +5366,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="32"/>
+      <c r="C12" s="29"/>
       <c r="F12" t="s">
         <v>14</v>
       </c>
@@ -5389,7 +5375,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="32"/>
+      <c r="C13" s="29"/>
       <c r="F13" t="s">
         <v>15</v>
       </c>
@@ -5466,86 +5452,86 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>0.02</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="17" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="17" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <v>0.03</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="17" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="17" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="15">
         <v>17</v>
       </c>
     </row>
@@ -5563,8 +5549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B351AA-72E5-4662-88B1-82316FEA502F}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5582,7 +5568,6 @@
         <v>41</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="6"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5591,10 +5576,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D2" t="s">
@@ -5609,7 +5594,7 @@
       <c r="G2">
         <v>18</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5620,7 +5605,7 @@
       <c r="G3">
         <v>7</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5633,62 +5618,62 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>0.04</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>4</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>14</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D8" t="s">
@@ -5721,7 +5706,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -5737,8 +5722,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="24"/>
+    <row r="16" spans="1:13" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
@@ -5774,10 +5759,10 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D20" t="s">
@@ -5824,228 +5809,228 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="17" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="17" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <v>0.06</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="17" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="17" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="16">
         <v>0.15</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="17" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="17" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="15">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="16">
         <v>0.08</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="17" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="17" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="16">
         <v>0</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="15">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="17" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="17" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="15">
         <v>3</v>
       </c>
     </row>
@@ -6067,6 +6052,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002043642AE9815F479D983B82A0551A9C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68c01233f0f389e23e2020d94334fa62">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="97682447-3446-4d5f-b3fb-c6e61a6b5800" xmlns:ns4="f521f82e-aa1f-4955-a3d2-f2865c7f722d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0ca681c81face049788e385e77b5025" ns3:_="" ns4:_="">
     <xsd:import namespace="97682447-3446-4d5f-b3fb-c6e61a6b5800"/>
@@ -6237,12 +6228,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A782CE86-7FEC-4933-9E6D-DBA5F03FA85A}">
   <ds:schemaRefs>
@@ -6252,6 +6237,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCE8D99F-5B22-4846-9774-E0B45D226C23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="97682447-3446-4d5f-b3fb-c6e61a6b5800"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f521f82e-aa1f-4955-a3d2-f2865c7f722d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C27E837C-9B71-4BED-AAF8-A85B6FB27E9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6268,21 +6270,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCE8D99F-5B22-4846-9774-E0B45D226C23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="97682447-3446-4d5f-b3fb-c6e61a6b5800"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f521f82e-aa1f-4955-a3d2-f2865c7f722d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>